--- a/datasets/df_generated_global_packaging.xlsx
+++ b/datasets/df_generated_global_packaging.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,1141 +434,1466 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>TIME</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>COUNTRY</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
           <t>2020</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>European Union - 27 countries (from 2020)</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>157.15</v>
+      </c>
       <c r="C2" t="n">
-        <v>157.15</v>
+        <v>154.77</v>
       </c>
       <c r="D2" t="n">
-        <v>154.77</v>
+        <v>156.57</v>
       </c>
       <c r="E2" t="n">
-        <v>156.57</v>
+        <v>161.18</v>
       </c>
       <c r="F2" t="n">
-        <v>161.18</v>
+        <v>165.16</v>
       </c>
       <c r="G2" t="n">
-        <v>165.16</v>
+        <v>168.96</v>
       </c>
       <c r="H2" t="n">
-        <v>168.96</v>
+        <v>173.84</v>
       </c>
       <c r="I2" t="n">
-        <v>173.84</v>
+        <v>173.25</v>
       </c>
       <c r="J2" t="n">
-        <v>173.25</v>
+        <v>177.56</v>
       </c>
       <c r="K2" t="n">
-        <v>177.56</v>
-      </c>
-      <c r="L2" t="n">
         <v>177.92</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>154.24</v>
+      </c>
       <c r="C3" t="n">
-        <v>154.24</v>
+        <v>154.46</v>
       </c>
       <c r="D3" t="n">
-        <v>154.46</v>
+        <v>155.77</v>
       </c>
       <c r="E3" t="n">
-        <v>155.77</v>
+        <v>155.4</v>
       </c>
       <c r="F3" t="n">
-        <v>155.4</v>
+        <v>155.32</v>
       </c>
       <c r="G3" t="n">
-        <v>155.32</v>
+        <v>157.13</v>
       </c>
       <c r="H3" t="n">
-        <v>157.13</v>
+        <v>156.55</v>
       </c>
       <c r="I3" t="n">
-        <v>156.55</v>
+        <v>157.51</v>
       </c>
       <c r="J3" t="n">
-        <v>157.51</v>
+        <v>160.62</v>
       </c>
       <c r="K3" t="n">
-        <v>160.62</v>
-      </c>
-      <c r="L3" t="n">
         <v>167.28</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>42.82</v>
+      </c>
+      <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>48.18</v>
+      </c>
+      <c r="E4" t="n">
+        <v>52.42</v>
+      </c>
+      <c r="F4" t="n">
+        <v>54.69</v>
+      </c>
+      <c r="G4" t="n">
+        <v>59.08</v>
+      </c>
+      <c r="H4" t="n">
+        <v>64.05</v>
+      </c>
+      <c r="I4" t="n">
+        <v>70.81999999999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>79.48999999999999</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Czechia</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="B5" t="n">
         <v>90.06</v>
       </c>
-      <c r="D4" t="n">
+      <c r="C5" t="n">
         <v>91.56</v>
       </c>
-      <c r="E4" t="n">
+      <c r="D5" t="n">
         <v>95.66</v>
       </c>
-      <c r="F4" t="n">
+      <c r="E5" t="n">
         <v>96.89</v>
       </c>
-      <c r="G4" t="n">
+      <c r="F5" t="n">
         <v>103.14</v>
       </c>
-      <c r="H4" t="n">
+      <c r="G5" t="n">
         <v>108.82</v>
       </c>
-      <c r="I4" t="n">
+      <c r="H5" t="n">
         <v>115.03</v>
       </c>
-      <c r="J4" t="n">
+      <c r="I5" t="n">
         <v>122</v>
       </c>
-      <c r="K4" t="n">
+      <c r="J5" t="n">
         <v>125.04</v>
       </c>
-      <c r="L4" t="n">
+      <c r="K5" t="n">
         <v>124.21</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="B6" t="n">
         <v>158.53</v>
       </c>
-      <c r="D5" t="n">
+      <c r="C6" t="n">
         <v>160.05</v>
       </c>
-      <c r="E5" t="n">
+      <c r="D6" t="n">
         <v>159.05</v>
       </c>
-      <c r="F5" t="n">
+      <c r="E6" t="n">
         <v>161.41</v>
       </c>
-      <c r="G5" t="n">
+      <c r="F6" t="n">
         <v>155.26</v>
       </c>
-      <c r="H5" t="n">
+      <c r="G6" t="n">
         <v>163.29</v>
       </c>
-      <c r="I5" t="n">
+      <c r="H6" t="n">
         <v>168.29</v>
       </c>
-      <c r="J5" t="n">
+      <c r="I6" t="n">
         <v>173.1</v>
       </c>
-      <c r="K5" t="n">
+      <c r="J6" t="n">
         <v>169.11</v>
       </c>
-      <c r="L5" t="n">
+      <c r="K6" t="n">
         <v>179.34</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Germany (until 1990 former territory of the FRG)</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="B7" t="n">
         <v>205.37</v>
       </c>
-      <c r="D6" t="n">
+      <c r="C7" t="n">
         <v>206.23</v>
       </c>
-      <c r="E6" t="n">
+      <c r="D7" t="n">
         <v>212.37</v>
       </c>
-      <c r="F6" t="n">
+      <c r="E7" t="n">
         <v>219.53</v>
       </c>
-      <c r="G6" t="n">
+      <c r="F7" t="n">
         <v>222.23</v>
       </c>
-      <c r="H6" t="n">
+      <c r="G7" t="n">
         <v>220.55</v>
       </c>
-      <c r="I6" t="n">
+      <c r="H7" t="n">
         <v>226.52</v>
       </c>
-      <c r="J6" t="n">
+      <c r="I7" t="n">
         <v>227.49</v>
       </c>
-      <c r="K6" t="n">
+      <c r="J7" t="n">
         <v>227.55</v>
       </c>
-      <c r="L6" t="n">
+      <c r="K7" t="n">
         <v>225.79</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Estonia</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="B8" t="n">
         <v>145.41</v>
       </c>
-      <c r="D7" t="n">
+      <c r="C8" t="n">
         <v>149.15</v>
       </c>
-      <c r="E7" t="n">
+      <c r="D8" t="n">
         <v>169.9</v>
       </c>
-      <c r="F7" t="n">
+      <c r="E8" t="n">
         <v>173.3</v>
       </c>
-      <c r="G7" t="n">
+      <c r="F8" t="n">
         <v>172.14</v>
       </c>
-      <c r="H7" t="n">
+      <c r="G8" t="n">
         <v>169.33</v>
       </c>
-      <c r="I7" t="n">
+      <c r="H8" t="n">
         <v>175.46</v>
       </c>
-      <c r="J7" t="n">
+      <c r="I8" t="n">
         <v>158.15</v>
       </c>
-      <c r="K7" t="n">
+      <c r="J8" t="n">
         <v>157.64</v>
       </c>
-      <c r="L7" t="n">
+      <c r="K8" t="n">
         <v>154.74</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Ireland</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="B9" t="n">
         <v>188.55</v>
       </c>
-      <c r="D8" t="n">
+      <c r="C9" t="n">
         <v>176</v>
       </c>
-      <c r="E8" t="n">
+      <c r="D9" t="n">
         <v>188.18</v>
       </c>
-      <c r="F8" t="n">
+      <c r="E9" t="n">
         <v>208.13</v>
       </c>
-      <c r="G8" t="n">
+      <c r="F9" t="n">
         <v>209.14</v>
       </c>
-      <c r="H8" t="n">
+      <c r="G9" t="n">
         <v>208.46</v>
       </c>
-      <c r="I8" t="n">
+      <c r="H9" t="n">
         <v>215.98</v>
       </c>
-      <c r="J8" t="n">
+      <c r="I9" t="n">
         <v>208.06</v>
       </c>
-      <c r="K8" t="n">
+      <c r="J9" t="n">
         <v>227.98</v>
       </c>
-      <c r="L8" t="n">
+      <c r="K9" t="n">
         <v>224.45</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>78.38</v>
+      </c>
+      <c r="C10" t="n">
+        <v>70.02</v>
+      </c>
+      <c r="D10" t="n">
+        <v>68.33</v>
+      </c>
+      <c r="E10" t="n">
+        <v>68.66</v>
+      </c>
+      <c r="F10" t="n">
+        <v>68.56999999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>69.81</v>
+      </c>
+      <c r="H10" t="n">
+        <v>73.13</v>
+      </c>
+      <c r="I10" t="n">
+        <v>75.91</v>
+      </c>
+      <c r="J10" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="B11" t="n">
         <v>152.9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="C11" t="n">
         <v>143.73</v>
       </c>
-      <c r="E9" t="n">
+      <c r="D11" t="n">
         <v>143.63</v>
       </c>
-      <c r="F9" t="n">
+      <c r="E11" t="n">
         <v>147.64</v>
       </c>
-      <c r="G9" t="n">
+      <c r="F11" t="n">
         <v>154.03</v>
       </c>
-      <c r="H9" t="n">
+      <c r="G11" t="n">
         <v>155.55</v>
       </c>
-      <c r="I9" t="n">
+      <c r="H11" t="n">
         <v>161.7</v>
       </c>
-      <c r="J9" t="n">
+      <c r="I11" t="n">
         <v>161.22</v>
       </c>
-      <c r="K9" t="n">
+      <c r="J11" t="n">
         <v>170.04</v>
       </c>
-      <c r="L9" t="n">
+      <c r="K11" t="n">
         <v>168.21</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B10" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="B12" t="n">
         <v>196.7</v>
       </c>
-      <c r="D10" t="n">
+      <c r="C12" t="n">
         <v>187.3</v>
       </c>
-      <c r="E10" t="n">
+      <c r="D12" t="n">
         <v>184.43</v>
       </c>
-      <c r="F10" t="n">
+      <c r="E12" t="n">
         <v>188.1</v>
       </c>
-      <c r="G10" t="n">
+      <c r="F12" t="n">
         <v>187.36</v>
       </c>
-      <c r="H10" t="n">
+      <c r="G12" t="n">
         <v>190.08</v>
       </c>
-      <c r="I10" t="n">
+      <c r="H12" t="n">
         <v>193.08</v>
       </c>
-      <c r="J10" t="n">
+      <c r="I12" t="n">
         <v>195.49</v>
       </c>
-      <c r="K10" t="n">
+      <c r="J12" t="n">
         <v>187.01</v>
       </c>
-      <c r="L10" t="n">
+      <c r="K12" t="n">
         <v>187.6</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B11" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>46.52</v>
+      </c>
+      <c r="D13" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="E13" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="F13" t="n">
+        <v>51.22</v>
+      </c>
+      <c r="G13" t="n">
+        <v>54.99</v>
+      </c>
+      <c r="H13" t="n">
+        <v>63.85</v>
+      </c>
+      <c r="I13" t="n">
+        <v>67.75</v>
+      </c>
+      <c r="J13" t="n">
+        <v>74.03</v>
+      </c>
+      <c r="K13" t="n">
+        <v>66.03</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="B14" t="n">
         <v>195.99</v>
       </c>
-      <c r="D11" t="n">
+      <c r="C14" t="n">
         <v>190.55</v>
       </c>
-      <c r="E11" t="n">
+      <c r="D14" t="n">
         <v>190.31</v>
       </c>
-      <c r="F11" t="n">
+      <c r="E14" t="n">
         <v>196.78</v>
       </c>
-      <c r="G11" t="n">
+      <c r="F14" t="n">
         <v>202.82</v>
       </c>
-      <c r="H11" t="n">
+      <c r="G14" t="n">
         <v>209.54</v>
       </c>
-      <c r="I11" t="n">
+      <c r="H14" t="n">
         <v>217.35</v>
       </c>
-      <c r="J11" t="n">
+      <c r="I14" t="n">
         <v>211.2</v>
       </c>
-      <c r="K11" t="n">
+      <c r="J14" t="n">
         <v>215.64</v>
       </c>
-      <c r="L11" t="n">
+      <c r="K14" t="n">
         <v>208.77</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B12" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Cyprus</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="B15" t="n">
         <v>88.8</v>
       </c>
-      <c r="D12" t="n">
+      <c r="C15" t="n">
         <v>86.75</v>
       </c>
-      <c r="E12" t="n">
+      <c r="D15" t="n">
         <v>91.31</v>
       </c>
-      <c r="F12" t="n">
+      <c r="E15" t="n">
         <v>85.69</v>
       </c>
-      <c r="G12" t="n">
+      <c r="F15" t="n">
         <v>85.97</v>
       </c>
-      <c r="H12" t="n">
+      <c r="G15" t="n">
         <v>86.23</v>
       </c>
-      <c r="I12" t="n">
+      <c r="H15" t="n">
         <v>89.94</v>
       </c>
-      <c r="J12" t="n">
+      <c r="I15" t="n">
         <v>86.73</v>
       </c>
-      <c r="K12" t="n">
+      <c r="J15" t="n">
         <v>92.31</v>
       </c>
-      <c r="L12" t="n">
+      <c r="K15" t="n">
         <v>91.68000000000001</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B13" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Latvia</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="B16" t="n">
         <v>104.91</v>
       </c>
-      <c r="D13" t="n">
+      <c r="C16" t="n">
         <v>105.13</v>
       </c>
-      <c r="E13" t="n">
+      <c r="D16" t="n">
         <v>113.94</v>
       </c>
-      <c r="F13" t="n">
+      <c r="E16" t="n">
         <v>111.15</v>
       </c>
-      <c r="G13" t="n">
+      <c r="F16" t="n">
         <v>118</v>
       </c>
-      <c r="H13" t="n">
+      <c r="G16" t="n">
         <v>118.2</v>
       </c>
-      <c r="I13" t="n">
+      <c r="H16" t="n">
         <v>122.17</v>
       </c>
-      <c r="J13" t="n">
+      <c r="I16" t="n">
         <v>133.54</v>
       </c>
-      <c r="K13" t="n">
+      <c r="J16" t="n">
         <v>136.74</v>
       </c>
-      <c r="L13" t="n">
+      <c r="K16" t="n">
         <v>142.81</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B14" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="B17" t="n">
         <v>96.54000000000001</v>
       </c>
-      <c r="D14" t="n">
+      <c r="C17" t="n">
         <v>101.12</v>
       </c>
-      <c r="E14" t="n">
+      <c r="D17" t="n">
         <v>108.11</v>
       </c>
-      <c r="F14" t="n">
+      <c r="E17" t="n">
         <v>117.56</v>
       </c>
-      <c r="G14" t="n">
+      <c r="F17" t="n">
         <v>120.94</v>
       </c>
-      <c r="H14" t="n">
+      <c r="G17" t="n">
         <v>127.39</v>
       </c>
-      <c r="I14" t="n">
+      <c r="H17" t="n">
         <v>127.72</v>
       </c>
-      <c r="J14" t="n">
+      <c r="I17" t="n">
         <v>126.58</v>
       </c>
-      <c r="K14" t="n">
+      <c r="J17" t="n">
         <v>134.41</v>
       </c>
-      <c r="L14" t="n">
+      <c r="K17" t="n">
         <v>136.79</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B15" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Luxembourg</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="B18" t="n">
         <v>201.95</v>
       </c>
-      <c r="D15" t="n">
+      <c r="C18" t="n">
         <v>202.67</v>
       </c>
-      <c r="E15" t="n">
+      <c r="D18" t="n">
         <v>206.14</v>
       </c>
-      <c r="F15" t="n">
+      <c r="E18" t="n">
         <v>227.03</v>
       </c>
-      <c r="G15" t="n">
+      <c r="F18" t="n">
         <v>217.55</v>
       </c>
-      <c r="H15" t="n">
+      <c r="G18" t="n">
         <v>222.44</v>
       </c>
-      <c r="I15" t="n">
+      <c r="H18" t="n">
         <v>225.15</v>
       </c>
-      <c r="J15" t="n">
+      <c r="I18" t="n">
         <v>224.04</v>
       </c>
-      <c r="K15" t="n">
+      <c r="J18" t="n">
         <v>217.22</v>
       </c>
-      <c r="L15" t="n">
+      <c r="K18" t="n">
         <v>205.22</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B16" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="B19" t="n">
         <v>84.08</v>
       </c>
-      <c r="D16" t="n">
+      <c r="C19" t="n">
         <v>102.1</v>
       </c>
-      <c r="E16" t="n">
+      <c r="D19" t="n">
         <v>103.34</v>
       </c>
-      <c r="F16" t="n">
+      <c r="E19" t="n">
         <v>110.01</v>
       </c>
-      <c r="G16" t="n">
+      <c r="F19" t="n">
         <v>117.68</v>
       </c>
-      <c r="H16" t="n">
+      <c r="G19" t="n">
         <v>121.78</v>
       </c>
-      <c r="I16" t="n">
+      <c r="H19" t="n">
         <v>128.82</v>
       </c>
-      <c r="J16" t="n">
+      <c r="I19" t="n">
         <v>138.35</v>
       </c>
-      <c r="K16" t="n">
+      <c r="J19" t="n">
         <v>142.79</v>
       </c>
-      <c r="L16" t="n">
+      <c r="K19" t="n">
         <v>154.61</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B17" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Malta</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="B20" t="n">
         <v>127.93</v>
       </c>
-      <c r="D17" t="n">
+      <c r="C20" t="n">
         <v>125.12</v>
       </c>
-      <c r="E17" t="n">
+      <c r="D20" t="n">
         <v>133.89</v>
       </c>
-      <c r="F17" t="n">
+      <c r="E20" t="n">
         <v>133.76</v>
       </c>
-      <c r="G17" t="n">
+      <c r="F20" t="n">
         <v>140.64</v>
       </c>
-      <c r="H17" t="n">
+      <c r="G20" t="n">
         <v>146.98</v>
       </c>
-      <c r="I17" t="n">
+      <c r="H20" t="n">
         <v>146.76</v>
       </c>
-      <c r="J17" t="n">
+      <c r="I20" t="n">
         <v>146.65</v>
       </c>
-      <c r="K17" t="n">
+      <c r="J20" t="n">
         <v>153.7</v>
       </c>
-      <c r="L17" t="n">
+      <c r="K20" t="n">
         <v>139.81</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B18" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="B21" t="n">
         <v>164.62</v>
       </c>
-      <c r="D18" t="n">
+      <c r="C21" t="n">
         <v>164.07</v>
       </c>
-      <c r="E18" t="n">
+      <c r="D21" t="n">
         <v>167.46</v>
       </c>
-      <c r="F18" t="n">
+      <c r="E21" t="n">
         <v>165.25</v>
       </c>
-      <c r="G18" t="n">
+      <c r="F21" t="n">
         <v>182</v>
       </c>
-      <c r="H18" t="n">
+      <c r="G21" t="n">
         <v>184.38</v>
       </c>
-      <c r="I18" t="n">
+      <c r="H21" t="n">
         <v>183.17</v>
       </c>
-      <c r="J18" t="n">
+      <c r="I21" t="n">
         <v>165.05</v>
       </c>
-      <c r="K18" t="n">
+      <c r="J21" t="n">
         <v>170.42</v>
       </c>
-      <c r="L18" t="n">
+      <c r="K21" t="n">
         <v>173.55</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B19" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="B22" t="n">
         <v>146.82</v>
       </c>
-      <c r="D19" t="n">
+      <c r="C22" t="n">
         <v>148.7</v>
       </c>
-      <c r="E19" t="n">
+      <c r="D22" t="n">
         <v>149.97</v>
       </c>
-      <c r="F19" t="n">
+      <c r="E22" t="n">
         <v>152.52</v>
       </c>
-      <c r="G19" t="n">
+      <c r="F22" t="n">
         <v>151.72</v>
       </c>
-      <c r="H19" t="n">
+      <c r="G22" t="n">
         <v>153.46</v>
       </c>
-      <c r="I19" t="n">
+      <c r="H22" t="n">
         <v>156.52</v>
       </c>
-      <c r="J19" t="n">
+      <c r="I22" t="n">
         <v>159.9</v>
       </c>
-      <c r="K19" t="n">
+      <c r="J22" t="n">
         <v>161.89</v>
       </c>
-      <c r="L19" t="n">
+      <c r="K22" t="n">
         <v>157.34</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B20" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>121.14</v>
+      </c>
+      <c r="C23" t="n">
+        <v>122.69</v>
+      </c>
+      <c r="D23" t="n">
+        <v>126.88</v>
+      </c>
+      <c r="E23" t="n">
+        <v>127.49</v>
+      </c>
+      <c r="F23" t="n">
+        <v>133.84</v>
+      </c>
+      <c r="G23" t="n">
+        <v>148.58</v>
+      </c>
+      <c r="H23" t="n">
+        <v>153.98</v>
+      </c>
+      <c r="I23" t="n">
+        <v>143.98</v>
+      </c>
+      <c r="J23" t="n">
+        <v>172.19</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="B24" t="n">
         <v>148.31</v>
       </c>
-      <c r="D20" t="n">
+      <c r="C24" t="n">
         <v>145.34</v>
       </c>
-      <c r="E20" t="n">
+      <c r="D24" t="n">
         <v>149.1</v>
       </c>
-      <c r="F20" t="n">
+      <c r="E24" t="n">
         <v>151.46</v>
       </c>
-      <c r="G20" t="n">
+      <c r="F24" t="n">
         <v>153.05</v>
       </c>
-      <c r="H20" t="n">
+      <c r="G24" t="n">
         <v>160.18</v>
       </c>
-      <c r="I20" t="n">
+      <c r="H24" t="n">
         <v>166.01</v>
       </c>
-      <c r="J20" t="n">
+      <c r="I24" t="n">
         <v>173.47</v>
       </c>
-      <c r="K20" t="n">
+      <c r="J24" t="n">
         <v>172.22</v>
       </c>
-      <c r="L20" t="n">
+      <c r="K24" t="n">
         <v>175.07</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B21" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="B25" t="n">
         <v>49.26</v>
       </c>
-      <c r="D21" t="n">
+      <c r="C25" t="n">
         <v>52.82</v>
       </c>
-      <c r="E21" t="n">
+      <c r="D25" t="n">
         <v>52.75</v>
       </c>
-      <c r="F21" t="n">
+      <c r="E25" t="n">
         <v>62.52</v>
       </c>
-      <c r="G21" t="n">
+      <c r="F25" t="n">
         <v>70.48</v>
       </c>
-      <c r="H21" t="n">
+      <c r="G25" t="n">
         <v>68.53</v>
       </c>
-      <c r="I21" t="n">
+      <c r="H25" t="n">
         <v>71.92</v>
       </c>
-      <c r="J21" t="n">
+      <c r="I25" t="n">
         <v>80.47</v>
       </c>
-      <c r="K21" t="n">
+      <c r="J25" t="n">
         <v>103.81</v>
       </c>
-      <c r="L21" t="n">
+      <c r="K25" t="n">
         <v>116.38</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B22" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="B26" t="n">
         <v>101.03</v>
       </c>
-      <c r="D22" t="n">
+      <c r="C26" t="n">
         <v>98.2</v>
       </c>
-      <c r="E22" t="n">
+      <c r="D26" t="n">
         <v>97.28</v>
       </c>
-      <c r="F22" t="n">
+      <c r="E26" t="n">
         <v>101.7</v>
       </c>
-      <c r="G22" t="n">
+      <c r="F26" t="n">
         <v>104.75</v>
       </c>
-      <c r="H22" t="n">
+      <c r="G26" t="n">
         <v>108.04</v>
       </c>
-      <c r="I22" t="n">
+      <c r="H26" t="n">
         <v>113.29</v>
       </c>
-      <c r="J22" t="n">
+      <c r="I26" t="n">
         <v>114.81</v>
       </c>
-      <c r="K22" t="n">
+      <c r="J26" t="n">
         <v>117.44</v>
       </c>
-      <c r="L22" t="n">
+      <c r="K26" t="n">
         <v>118.16</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B23" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="B27" t="n">
         <v>82.19</v>
       </c>
-      <c r="D23" t="n">
+      <c r="C27" t="n">
         <v>82.91</v>
       </c>
-      <c r="E23" t="n">
+      <c r="D27" t="n">
         <v>81.77</v>
       </c>
-      <c r="F23" t="n">
+      <c r="E27" t="n">
         <v>85.56</v>
       </c>
-      <c r="G23" t="n">
+      <c r="F27" t="n">
         <v>90.94</v>
       </c>
-      <c r="H23" t="n">
+      <c r="G27" t="n">
         <v>95.34999999999999</v>
       </c>
-      <c r="I23" t="n">
+      <c r="H27" t="n">
         <v>95.15000000000001</v>
       </c>
-      <c r="J23" t="n">
+      <c r="I27" t="n">
         <v>102.2</v>
       </c>
-      <c r="K23" t="n">
+      <c r="J27" t="n">
         <v>104.77</v>
       </c>
-      <c r="L23" t="n">
+      <c r="K27" t="n">
         <v>103.67</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B24" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Finland</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="B28" t="n">
         <v>131.7</v>
       </c>
-      <c r="D24" t="n">
+      <c r="C28" t="n">
         <v>132.2</v>
       </c>
-      <c r="E24" t="n">
+      <c r="D28" t="n">
         <v>131.77</v>
       </c>
-      <c r="F24" t="n">
+      <c r="E28" t="n">
         <v>134.01</v>
       </c>
-      <c r="G24" t="n">
+      <c r="F28" t="n">
         <v>130.27</v>
       </c>
-      <c r="H24" t="n">
+      <c r="G28" t="n">
         <v>129.19</v>
       </c>
-      <c r="I24" t="n">
+      <c r="H28" t="n">
         <v>135</v>
       </c>
-      <c r="J24" t="n">
+      <c r="I28" t="n">
         <v>127.93</v>
       </c>
-      <c r="K24" t="n">
+      <c r="J28" t="n">
         <v>131.44</v>
       </c>
-      <c r="L24" t="n">
+      <c r="K28" t="n">
         <v>157.66</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B25" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="B29" t="n">
         <v>109.13</v>
       </c>
-      <c r="D25" t="n">
+      <c r="C29" t="n">
         <v>111.17</v>
       </c>
-      <c r="E25" t="n">
+      <c r="D29" t="n">
         <v>109.17</v>
       </c>
-      <c r="F25" t="n">
+      <c r="E29" t="n">
         <v>113.23</v>
       </c>
-      <c r="G25" t="n">
+      <c r="F29" t="n">
         <v>113.34</v>
       </c>
-      <c r="H25" t="n">
+      <c r="G29" t="n">
         <v>132.41</v>
       </c>
-      <c r="I25" t="n">
+      <c r="H29" t="n">
         <v>130.75</v>
       </c>
-      <c r="J25" t="n">
+      <c r="I29" t="n">
         <v>133.04</v>
       </c>
-      <c r="K25" t="n">
+      <c r="J29" t="n">
         <v>134.31</v>
       </c>
-      <c r="L25" t="n">
+      <c r="K29" t="n">
         <v>132.06</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B26" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Iceland</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="B30" t="n">
         <v>138.52</v>
       </c>
-      <c r="D26" t="n">
+      <c r="C30" t="n">
         <v>139</v>
       </c>
-      <c r="E26" t="n">
+      <c r="D30" t="n">
         <v>147.59</v>
       </c>
-      <c r="F26" t="n">
+      <c r="E30" t="n">
         <v>129.39</v>
       </c>
-      <c r="G26" t="n">
+      <c r="F30" t="n">
         <v>140.88</v>
       </c>
-      <c r="H26" t="n">
+      <c r="G30" t="n">
         <v>147.12</v>
       </c>
-      <c r="I26" t="n">
+      <c r="H30" t="n">
         <v>150.4</v>
       </c>
-      <c r="J26" t="n">
+      <c r="I30" t="n">
         <v>146.79</v>
       </c>
-      <c r="K26" t="n">
+      <c r="J30" t="n">
         <v>149.05</v>
       </c>
-      <c r="L26" t="n">
+      <c r="K30" t="n">
         <v>130.61</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B27" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Liechtenstein</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="B31" t="n">
         <v>157.63</v>
       </c>
-      <c r="D27" t="n">
+      <c r="C31" t="n">
         <v>141.72</v>
       </c>
-      <c r="E27" t="n">
+      <c r="D31" t="n">
         <v>152.28</v>
       </c>
-      <c r="F27" t="n">
+      <c r="E31" t="n">
         <v>155.15</v>
       </c>
-      <c r="G27" t="n">
+      <c r="F31" t="n">
         <v>172.83</v>
       </c>
-      <c r="H27" t="n">
+      <c r="G31" t="n">
         <v>165.74</v>
       </c>
-      <c r="I27" t="n">
+      <c r="H31" t="n">
         <v>169.88</v>
       </c>
-      <c r="J27" t="n">
+      <c r="I31" t="n">
         <v>174.66</v>
       </c>
-      <c r="K27" t="n">
+      <c r="J31" t="n">
         <v>178.39</v>
       </c>
-      <c r="L27" t="n">
+      <c r="K31" t="n">
         <v>195.49</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B28" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Norway</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="B32" t="n">
         <v>146.69</v>
       </c>
-      <c r="D28" t="n">
+      <c r="C32" t="n">
         <v>138.76</v>
       </c>
-      <c r="E28" t="n">
+      <c r="D32" t="n">
         <v>145.68</v>
       </c>
-      <c r="F28" t="n">
+      <c r="E32" t="n">
         <v>148.53</v>
       </c>
-      <c r="G28" t="n">
+      <c r="F32" t="n">
         <v>153.03</v>
       </c>
-      <c r="H28" t="n">
+      <c r="G32" t="n">
         <v>149.53</v>
       </c>
-      <c r="I28" t="n">
+      <c r="H32" t="n">
         <v>163.05</v>
       </c>
-      <c r="J28" t="n">
+      <c r="I32" t="n">
         <v>161.11</v>
       </c>
-      <c r="K28" t="n">
+      <c r="J32" t="n">
         <v>165.51</v>
       </c>
-      <c r="L28" t="n">
+      <c r="K32" t="n">
         <v>173.45</v>
       </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>172.78</v>
+      </c>
+      <c r="C33" t="n">
+        <v>167.27</v>
+      </c>
+      <c r="D33" t="n">
+        <v>161.93</v>
+      </c>
+      <c r="E33" t="n">
+        <v>177.03</v>
+      </c>
+      <c r="F33" t="n">
+        <v>176.24</v>
+      </c>
+      <c r="G33" t="n">
+        <v>174.91</v>
+      </c>
+      <c r="H33" t="n">
+        <v>174.14</v>
+      </c>
+      <c r="I33" t="n">
+        <v>178.08</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Northern Ireland (UK)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Special value</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Available flags:</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>be</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>break in time series, estimated</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>break in time series</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>estimated</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Eurostat estimate</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
